--- a/Tstats_mast.xlsx
+++ b/Tstats_mast.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="456">
   <si>
     <t>OriginalVariableNames</t>
   </si>
@@ -146,6 +146,1287 @@
   </si>
   <si>
     <t>10 ± 7</t>
+  </si>
+  <si>
+    <t>OriginalVariableNames</t>
+  </si>
+  <si>
+    <t>Julian Day of Year</t>
+  </si>
+  <si>
+    <t>Recording Sessions</t>
+  </si>
+  <si>
+    <t>Unique Squirrels</t>
+  </si>
+  <si>
+    <t>Day Length (hrs)</t>
+  </si>
+  <si>
+    <t>QB per day (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (%)</t>
+  </si>
+  <si>
+    <t>QB in darkness (hrs)</t>
+  </si>
+  <si>
+    <t>QB in darkness (%)</t>
+  </si>
+  <si>
+    <t>Total QB transitions</t>
+  </si>
+  <si>
+    <t>QB transitions in daylight</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour daylight</t>
+  </si>
+  <si>
+    <t>QB transitions in darkness</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour darkness</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>311-35</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>6.55 ± 0.79</t>
+  </si>
+  <si>
+    <t>13.58 ± 2.03</t>
+  </si>
+  <si>
+    <t>2.34 ± 0.85</t>
+  </si>
+  <si>
+    <t>36% ± 13%</t>
+  </si>
+  <si>
+    <t>11.24 ± 1.69</t>
+  </si>
+  <si>
+    <t>64% ± 10%</t>
+  </si>
+  <si>
+    <t>444 ± 93</t>
+  </si>
+  <si>
+    <t>93 ± 28</t>
+  </si>
+  <si>
+    <t>14 ± 4</t>
+  </si>
+  <si>
+    <t>351 ± 82
+</t>
+  </si>
+  <si>
+    <t>20 ± 5
+</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>36-127</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>12.44 ± 2.52</t>
+  </si>
+  <si>
+    <t>12.32 ± 2.53</t>
+  </si>
+  <si>
+    <t>4.01 ± 1.81</t>
+  </si>
+  <si>
+    <t>32% ± 15%</t>
+  </si>
+  <si>
+    <t>8.32 ± 1.90</t>
+  </si>
+  <si>
+    <t>72% ± 16%</t>
+  </si>
+  <si>
+    <t>389 ± 102</t>
+  </si>
+  <si>
+    <t>154 ± 53</t>
+  </si>
+  <si>
+    <t>12 ± 4</t>
+  </si>
+  <si>
+    <t>235 ± 99
+</t>
+  </si>
+  <si>
+    <t>20 ± 9
+</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>128-218</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>18.21 ± 0.81</t>
+  </si>
+  <si>
+    <t>13.18 ± 2.91</t>
+  </si>
+  <si>
+    <t>8.09 ± 2.71</t>
+  </si>
+  <si>
+    <t>44% ± 15%</t>
+  </si>
+  <si>
+    <t>5.09 ± 0.71</t>
+  </si>
+  <si>
+    <t>88% ± 12%</t>
+  </si>
+  <si>
+    <t>312 ± 56</t>
+  </si>
+  <si>
+    <t>242 ± 61</t>
+  </si>
+  <si>
+    <t>13 ± 3</t>
+  </si>
+  <si>
+    <t>70 ± 46
+</t>
+  </si>
+  <si>
+    <t>12 ± 8
+</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>219-309</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>12.37 ± 2.47</t>
+  </si>
+  <si>
+    <t>11.18 ± 2.77</t>
+  </si>
+  <si>
+    <t>3.74 ± 1.82</t>
+  </si>
+  <si>
+    <t>30% ± 15%</t>
+  </si>
+  <si>
+    <t>7.44 ± 1.46</t>
+  </si>
+  <si>
+    <t>64% ± 13%</t>
+  </si>
+  <si>
+    <t>299 ± 68</t>
+  </si>
+  <si>
+    <t>132 ± 48</t>
+  </si>
+  <si>
+    <t>11 ± 4</t>
+  </si>
+  <si>
+    <t>167 ± 67
+</t>
+  </si>
+  <si>
+    <t>14 ± 6
+</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>1-366</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>12.38 ± 4.52</t>
+  </si>
+  <si>
+    <t>12.88 ± 2.53</t>
+  </si>
+  <si>
+    <t>3.32 ± 2.10</t>
+  </si>
+  <si>
+    <t>27% ± 17%</t>
+  </si>
+  <si>
+    <t>9.56 ± 2.61</t>
+  </si>
+  <si>
+    <t>82% ± 22%</t>
+  </si>
+  <si>
+    <t>397 ± 107</t>
+  </si>
+  <si>
+    <t>122 ± 58</t>
+  </si>
+  <si>
+    <t>10 ± 5</t>
+  </si>
+  <si>
+    <t>275 ± 123</t>
+  </si>
+  <si>
+    <t>24 ± 11
+</t>
+  </si>
+  <si>
+    <t>OriginalVariableNames</t>
+  </si>
+  <si>
+    <t>Julian Day of Year</t>
+  </si>
+  <si>
+    <t>Recording Sessions</t>
+  </si>
+  <si>
+    <t>Unique Squirrels</t>
+  </si>
+  <si>
+    <t>Day Length (hrs)</t>
+  </si>
+  <si>
+    <t>QB per day (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (%)</t>
+  </si>
+  <si>
+    <t>QB in darkness (hrs)</t>
+  </si>
+  <si>
+    <t>QB in darkness (%)</t>
+  </si>
+  <si>
+    <t>Total QB transitions</t>
+  </si>
+  <si>
+    <t>QB transitions in daylight</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour daylight</t>
+  </si>
+  <si>
+    <t>QB transitions in darkness</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour darkness</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>311-35</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>6.55 ± 0.79</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN% ± NaN%</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN% ± NaN%</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN ± NaN
+</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>36-127</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>12.44 ± 2.52</t>
+  </si>
+  <si>
+    <t>17.38 ± 1.75</t>
+  </si>
+  <si>
+    <t>6.18 ± 1.71</t>
+  </si>
+  <si>
+    <t>50% ± 14%</t>
+  </si>
+  <si>
+    <t>11.20 ± 2.25</t>
+  </si>
+  <si>
+    <t>97% ± 19%</t>
+  </si>
+  <si>
+    <t>236 ± 37</t>
+  </si>
+  <si>
+    <t>172 ± 41</t>
+  </si>
+  <si>
+    <t>14 ± 3</t>
+  </si>
+  <si>
+    <t>64 ± 22
+</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>128-218</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>18.21 ± 0.81</t>
+  </si>
+  <si>
+    <t>16.16 ± 1.84</t>
+  </si>
+  <si>
+    <t>11.04 ± 2.00</t>
+  </si>
+  <si>
+    <t>61% ± 11%</t>
+  </si>
+  <si>
+    <t>5.11 ± 0.70</t>
+  </si>
+  <si>
+    <t>88% ± 12%</t>
+  </si>
+  <si>
+    <t>309 ± 49</t>
+  </si>
+  <si>
+    <t>277 ± 48</t>
+  </si>
+  <si>
+    <t>15 ± 3</t>
+  </si>
+  <si>
+    <t>32 ± 16
+</t>
+  </si>
+  <si>
+    <t>5 ± 3
+</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>219-309</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>12.37 ± 2.47</t>
+  </si>
+  <si>
+    <t>12.94 ± 2.35</t>
+  </si>
+  <si>
+    <t>3.77 ± 2.60</t>
+  </si>
+  <si>
+    <t>30% ± 21%</t>
+  </si>
+  <si>
+    <t>9.17 ± 1.09</t>
+  </si>
+  <si>
+    <t>79% ± 9%</t>
+  </si>
+  <si>
+    <t>262 ± 70</t>
+  </si>
+  <si>
+    <t>191 ± 64</t>
+  </si>
+  <si>
+    <t>15 ± 5</t>
+  </si>
+  <si>
+    <t>71 ± 22
+</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>1-366</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>12.38 ± 4.52</t>
+  </si>
+  <si>
+    <t>15.64 ± 2.53</t>
+  </si>
+  <si>
+    <t>8.26 ± 3.81</t>
+  </si>
+  <si>
+    <t>67% ± 31%</t>
+  </si>
+  <si>
+    <t>7.38 ± 2.88</t>
+  </si>
+  <si>
+    <t>64% ± 25%</t>
+  </si>
+  <si>
+    <t>282 ± 61</t>
+  </si>
+  <si>
+    <t>234 ± 70</t>
+  </si>
+  <si>
+    <t>19 ± 6</t>
+  </si>
+  <si>
+    <t>48 ± 26</t>
+  </si>
+  <si>
+    <t>4 ± 2
+</t>
+  </si>
+  <si>
+    <t>OriginalVariableNames</t>
+  </si>
+  <si>
+    <t>Julian Day of Year</t>
+  </si>
+  <si>
+    <t>Recording Sessions</t>
+  </si>
+  <si>
+    <t>Unique Squirrels</t>
+  </si>
+  <si>
+    <t>Day Length (hrs)</t>
+  </si>
+  <si>
+    <t>QB per day (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (%)</t>
+  </si>
+  <si>
+    <t>QB in darkness (hrs)</t>
+  </si>
+  <si>
+    <t>QB in darkness (%)</t>
+  </si>
+  <si>
+    <t>Total QB transitions</t>
+  </si>
+  <si>
+    <t>QB transitions in daylight</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour daylight</t>
+  </si>
+  <si>
+    <t>QB transitions in darkness</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour darkness</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>311-35</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>6.55 ± 0.79</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN% ± NaN%</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN% ± NaN%</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN ± NaN
+</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>36-127</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>12.44 ± 2.52</t>
+  </si>
+  <si>
+    <t>17.77 ± 1.35</t>
+  </si>
+  <si>
+    <t>6.51 ± 1.80</t>
+  </si>
+  <si>
+    <t>52% ± 14%</t>
+  </si>
+  <si>
+    <t>11.26 ± 2.22</t>
+  </si>
+  <si>
+    <t>97% ± 19%</t>
+  </si>
+  <si>
+    <t>250 ± 35</t>
+  </si>
+  <si>
+    <t>189 ± 39</t>
+  </si>
+  <si>
+    <t>15 ± 3</t>
+  </si>
+  <si>
+    <t>61 ± 23
+</t>
+  </si>
+  <si>
+    <t>5 ± 2
+</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>128-218</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>18.21 ± 0.81</t>
+  </si>
+  <si>
+    <t>15.46 ± 1.81</t>
+  </si>
+  <si>
+    <t>10.39 ± 1.93</t>
+  </si>
+  <si>
+    <t>57% ± 11%</t>
+  </si>
+  <si>
+    <t>5.07 ± 0.72</t>
+  </si>
+  <si>
+    <t>88% ± 12%</t>
+  </si>
+  <si>
+    <t>299 ± 46</t>
+  </si>
+  <si>
+    <t>264 ± 41</t>
+  </si>
+  <si>
+    <t>15 ± 2</t>
+  </si>
+  <si>
+    <t>34 ± 16
+</t>
+  </si>
+  <si>
+    <t>6 ± 3
+</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>219-309</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>12.37 ± 2.47</t>
+  </si>
+  <si>
+    <t>12.40 ± 2.07</t>
+  </si>
+  <si>
+    <t>3.34 ± 2.37</t>
+  </si>
+  <si>
+    <t>27% ± 19%</t>
+  </si>
+  <si>
+    <t>9.07 ± 1.11</t>
+  </si>
+  <si>
+    <t>78% ± 10%</t>
+  </si>
+  <si>
+    <t>248 ± 67</t>
+  </si>
+  <si>
+    <t>173 ± 54</t>
+  </si>
+  <si>
+    <t>14 ± 4</t>
+  </si>
+  <si>
+    <t>75 ± 24
+</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>1-366</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>12.38 ± 4.52</t>
+  </si>
+  <si>
+    <t>15.20 ± 2.56</t>
+  </si>
+  <si>
+    <t>7.86 ± 3.60</t>
+  </si>
+  <si>
+    <t>64% ± 29%</t>
+  </si>
+  <si>
+    <t>7.34 ± 2.90</t>
+  </si>
+  <si>
+    <t>63% ± 25%</t>
+  </si>
+  <si>
+    <t>276 ± 56</t>
+  </si>
+  <si>
+    <t>227 ± 61</t>
+  </si>
+  <si>
+    <t>18 ± 5</t>
+  </si>
+  <si>
+    <t>50 ± 27</t>
+  </si>
+  <si>
+    <t>4 ± 2
+</t>
+  </si>
+  <si>
+    <t>OriginalVariableNames</t>
+  </si>
+  <si>
+    <t>Julian Day of Year</t>
+  </si>
+  <si>
+    <t>Recording Sessions</t>
+  </si>
+  <si>
+    <t>Unique Squirrels</t>
+  </si>
+  <si>
+    <t>Day Length (hrs)</t>
+  </si>
+  <si>
+    <t>QB per day (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (%)</t>
+  </si>
+  <si>
+    <t>QB in darkness (hrs)</t>
+  </si>
+  <si>
+    <t>QB in darkness (%)</t>
+  </si>
+  <si>
+    <t>Total QB transitions</t>
+  </si>
+  <si>
+    <t>QB transitions in daylight</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour daylight</t>
+  </si>
+  <si>
+    <t>QB transitions in darkness</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour darkness</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>311-35</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>6.55 ± 0.79</t>
+  </si>
+  <si>
+    <t>19.90 ± 1.13</t>
+  </si>
+  <si>
+    <t>4.07 ± 0.88</t>
+  </si>
+  <si>
+    <t>62% ± 13%</t>
+  </si>
+  <si>
+    <t>15.84 ± 1.03</t>
+  </si>
+  <si>
+    <t>91% ± 6%</t>
+  </si>
+  <si>
+    <t>195 ± 37</t>
+  </si>
+  <si>
+    <t>89 ± 28</t>
+  </si>
+  <si>
+    <t>14 ± 4</t>
+  </si>
+  <si>
+    <t>107 ± 29
+</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>36-127</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>12.44 ± 2.52</t>
+  </si>
+  <si>
+    <t>18.05 ± 2.62</t>
+  </si>
+  <si>
+    <t>6.85 ± 2.02</t>
+  </si>
+  <si>
+    <t>55% ± 16%</t>
+  </si>
+  <si>
+    <t>11.20 ± 2.53</t>
+  </si>
+  <si>
+    <t>97% ± 22%</t>
+  </si>
+  <si>
+    <t>248 ± 55</t>
+  </si>
+  <si>
+    <t>177 ± 57</t>
+  </si>
+  <si>
+    <t>14 ± 5</t>
+  </si>
+  <si>
+    <t>71 ± 30
+</t>
+  </si>
+  <si>
+    <t>6 ± 3
+</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>128-218</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>18.21 ± 0.81</t>
+  </si>
+  <si>
+    <t>15.56 ± 1.80</t>
+  </si>
+  <si>
+    <t>9.93 ± 1.95</t>
+  </si>
+  <si>
+    <t>55% ± 11%</t>
+  </si>
+  <si>
+    <t>5.63 ± 0.73</t>
+  </si>
+  <si>
+    <t>97% ± 13%</t>
+  </si>
+  <si>
+    <t>294 ± 40</t>
+  </si>
+  <si>
+    <t>262 ± 37</t>
+  </si>
+  <si>
+    <t>14 ± 2</t>
+  </si>
+  <si>
+    <t>32 ± 12
+</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>219-309</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>12.37 ± 2.47</t>
+  </si>
+  <si>
+    <t>15.01 ± 1.62</t>
+  </si>
+  <si>
+    <t>5.76 ± 1.57</t>
+  </si>
+  <si>
+    <t>47% ± 13%</t>
+  </si>
+  <si>
+    <t>9.24 ± 1.07</t>
+  </si>
+  <si>
+    <t>79% ± 9%</t>
+  </si>
+  <si>
+    <t>244 ± 41</t>
+  </si>
+  <si>
+    <t>183 ± 34</t>
+  </si>
+  <si>
+    <t>15 ± 3</t>
+  </si>
+  <si>
+    <t>61 ± 19
+</t>
+  </si>
+  <si>
+    <t>5 ± 2
+</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>1-366</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>12.38 ± 4.52</t>
+  </si>
+  <si>
+    <t>18.33 ± 2.59</t>
+  </si>
+  <si>
+    <t>5.30 ± 2.17</t>
+  </si>
+  <si>
+    <t>43% ± 18%</t>
+  </si>
+  <si>
+    <t>13.03 ± 3.69</t>
+  </si>
+  <si>
+    <t>112% ± 32%</t>
+  </si>
+  <si>
+    <t>221 ± 52</t>
+  </si>
+  <si>
+    <t>134 ± 67</t>
+  </si>
+  <si>
+    <t>11 ± 5</t>
+  </si>
+  <si>
+    <t>87 ± 36</t>
+  </si>
+  <si>
+    <t>7 ± 3
+</t>
+  </si>
+  <si>
+    <t>OriginalVariableNames</t>
+  </si>
+  <si>
+    <t>Julian Day of Year</t>
+  </si>
+  <si>
+    <t>Recording Sessions</t>
+  </si>
+  <si>
+    <t>Unique Squirrels</t>
+  </si>
+  <si>
+    <t>Day Length (hrs)</t>
+  </si>
+  <si>
+    <t>QB per day (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (%)</t>
+  </si>
+  <si>
+    <t>QB in darkness (hrs)</t>
+  </si>
+  <si>
+    <t>QB in darkness (%)</t>
+  </si>
+  <si>
+    <t>Total QB transitions</t>
+  </si>
+  <si>
+    <t>QB transitions in daylight</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour daylight</t>
+  </si>
+  <si>
+    <t>QB transitions in darkness</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour darkness</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>311-35</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>6.55 ± 0.79</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN% ± NaN%</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN% ± NaN%</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN ± NaN
+</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>36-127</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>12.44 ± 2.52</t>
+  </si>
+  <si>
+    <t>17.65 ± 1.35</t>
+  </si>
+  <si>
+    <t>6.41 ± 1.84</t>
+  </si>
+  <si>
+    <t>52% ± 15%</t>
+  </si>
+  <si>
+    <t>11.24 ± 2.21</t>
+  </si>
+  <si>
+    <t>97% ± 19%</t>
+  </si>
+  <si>
+    <t>247 ± 35</t>
+  </si>
+  <si>
+    <t>186 ± 40</t>
+  </si>
+  <si>
+    <t>15 ± 3</t>
+  </si>
+  <si>
+    <t>61 ± 23
+</t>
+  </si>
+  <si>
+    <t>5 ± 2
+</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>128-218</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>18.21 ± 0.81</t>
+  </si>
+  <si>
+    <t>15.38 ± 1.85</t>
+  </si>
+  <si>
+    <t>10.31 ± 1.96</t>
+  </si>
+  <si>
+    <t>57% ± 11%</t>
+  </si>
+  <si>
+    <t>5.06 ± 0.73</t>
+  </si>
+  <si>
+    <t>87% ± 13%</t>
+  </si>
+  <si>
+    <t>296 ± 46</t>
+  </si>
+  <si>
+    <t>262 ± 41</t>
+  </si>
+  <si>
+    <t>14 ± 2</t>
+  </si>
+  <si>
+    <t>35 ± 16
+</t>
+  </si>
+  <si>
+    <t>6 ± 3
+</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>219-309</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>12.37 ± 2.47</t>
+  </si>
+  <si>
+    <t>12.39 ± 2.07</t>
+  </si>
+  <si>
+    <t>3.33 ± 2.37</t>
+  </si>
+  <si>
+    <t>27% ± 19%</t>
+  </si>
+  <si>
+    <t>9.06 ± 1.11</t>
+  </si>
+  <si>
+    <t>78% ± 10%</t>
+  </si>
+  <si>
+    <t>248 ± 67</t>
+  </si>
+  <si>
+    <t>173 ± 54</t>
+  </si>
+  <si>
+    <t>14 ± 4</t>
+  </si>
+  <si>
+    <t>75 ± 24
+</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>1-366</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>12.38 ± 4.52</t>
+  </si>
+  <si>
+    <t>15.13 ± 2.55</t>
+  </si>
+  <si>
+    <t>7.80 ± 3.59</t>
+  </si>
+  <si>
+    <t>63% ± 29%</t>
+  </si>
+  <si>
+    <t>7.33 ± 2.90</t>
+  </si>
+  <si>
+    <t>63% ± 25%</t>
+  </si>
+  <si>
+    <t>274 ± 56</t>
+  </si>
+  <si>
+    <t>224 ± 61</t>
+  </si>
+  <si>
+    <t>18 ± 5</t>
+  </si>
+  <si>
+    <t>50 ± 27</t>
+  </si>
+  <si>
+    <t>4 ± 2
+</t>
   </si>
 </sst>
 </file>
@@ -166,7 +1447,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -175,13 +1456,23 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,175 +1482,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.7109375" customWidth="true"/>
-    <col min="3" max="3" width="16.140625" customWidth="true"/>
-    <col min="4" max="4" width="17.7109375" customWidth="true"/>
-    <col min="5" max="5" width="17.7109375" customWidth="true"/>
-    <col min="6" max="6" width="10.140625" customWidth="true"/>
+    <col min="1" max="1" width="29.42578125" customWidth="true"/>
+    <col min="2" max="2" width="13.85546875" customWidth="true"/>
+    <col min="3" max="3" width="11.140625" customWidth="true"/>
+    <col min="4" max="4" width="11.140625" customWidth="true"/>
+    <col min="5" max="5" width="11.140625" customWidth="true"/>
+    <col min="6" max="6" width="11.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>390</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>414</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>428</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>376</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>391</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>401</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>21</v>
+        <v>415</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="0">
-        <v>12</v>
+        <v>429</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>377</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>402</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
+        <v>416</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>378</v>
+      </c>
+      <c r="B4" s="0">
+        <v>71</v>
+      </c>
+      <c r="C4" s="0">
+        <v>67</v>
+      </c>
+      <c r="D4" s="0">
+        <v>66</v>
+      </c>
+      <c r="E4" s="0">
+        <v>68</v>
+      </c>
+      <c r="F4" s="0">
+        <v>218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>393</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>403</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>417</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>32</v>
+        <v>431</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>380</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>394</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>404</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>25</v>
+        <v>418</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>33</v>
+        <v>432</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>40</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>394</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>405</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>26</v>
+        <v>419</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>34</v>
+        <v>433</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>41</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>395</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>406</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>27</v>
+        <v>420</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>35</v>
+        <v>434</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>42</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/Tstats_mast.xlsx
+++ b/Tstats_mast.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="608">
   <si>
     <t>OriginalVariableNames</t>
   </si>
@@ -1426,6 +1426,478 @@
   </si>
   <si>
     <t>4 ± 2
+</t>
+  </si>
+  <si>
+    <t>OriginalVariableNames</t>
+  </si>
+  <si>
+    <t>Julian Day of Year</t>
+  </si>
+  <si>
+    <t>Recording Sessions</t>
+  </si>
+  <si>
+    <t>Unique Squirrels</t>
+  </si>
+  <si>
+    <t>Day Length (hrs)</t>
+  </si>
+  <si>
+    <t>QB per day (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (%)</t>
+  </si>
+  <si>
+    <t>QB in darkness (hrs)</t>
+  </si>
+  <si>
+    <t>QB in darkness (%)</t>
+  </si>
+  <si>
+    <t>Total QB transitions</t>
+  </si>
+  <si>
+    <t>QB transitions in daylight</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour daylight</t>
+  </si>
+  <si>
+    <t>QB transitions in darkness</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour darkness</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>311-35</t>
+  </si>
+  <si>
+    <t>6.55 ± 0.79</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN% ± NaN%</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN% ± NaN%</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN ± NaN
+</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>36-127</t>
+  </si>
+  <si>
+    <t>12.44 ± 2.52</t>
+  </si>
+  <si>
+    <t>17.65 ± 1.35</t>
+  </si>
+  <si>
+    <t>6.41 ± 1.84</t>
+  </si>
+  <si>
+    <t>52% ± 15%</t>
+  </si>
+  <si>
+    <t>11.24 ± 2.21</t>
+  </si>
+  <si>
+    <t>97% ± 19%</t>
+  </si>
+  <si>
+    <t>247 ± 35</t>
+  </si>
+  <si>
+    <t>186 ± 40</t>
+  </si>
+  <si>
+    <t>15 ± 3</t>
+  </si>
+  <si>
+    <t>61 ± 23
+</t>
+  </si>
+  <si>
+    <t>5 ± 2
+</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>128-218</t>
+  </si>
+  <si>
+    <t>18.21 ± 0.81</t>
+  </si>
+  <si>
+    <t>15.38 ± 1.85</t>
+  </si>
+  <si>
+    <t>10.31 ± 1.96</t>
+  </si>
+  <si>
+    <t>57% ± 11%</t>
+  </si>
+  <si>
+    <t>5.06 ± 0.73</t>
+  </si>
+  <si>
+    <t>87% ± 13%</t>
+  </si>
+  <si>
+    <t>296 ± 46</t>
+  </si>
+  <si>
+    <t>262 ± 41</t>
+  </si>
+  <si>
+    <t>14 ± 2</t>
+  </si>
+  <si>
+    <t>35 ± 16
+</t>
+  </si>
+  <si>
+    <t>6 ± 3
+</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>219-309</t>
+  </si>
+  <si>
+    <t>12.37 ± 2.47</t>
+  </si>
+  <si>
+    <t>12.39 ± 2.07</t>
+  </si>
+  <si>
+    <t>3.33 ± 2.37</t>
+  </si>
+  <si>
+    <t>27% ± 19%</t>
+  </si>
+  <si>
+    <t>9.06 ± 1.11</t>
+  </si>
+  <si>
+    <t>78% ± 10%</t>
+  </si>
+  <si>
+    <t>248 ± 67</t>
+  </si>
+  <si>
+    <t>173 ± 54</t>
+  </si>
+  <si>
+    <t>14 ± 4</t>
+  </si>
+  <si>
+    <t>75 ± 24
+</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>1-366</t>
+  </si>
+  <si>
+    <t>12.39 ± 1.65</t>
+  </si>
+  <si>
+    <t>15.14 ± 1.76</t>
+  </si>
+  <si>
+    <t>6.68 ± 2.06</t>
+  </si>
+  <si>
+    <t>15% ± 45%</t>
+  </si>
+  <si>
+    <t>8.45 ± 1.35</t>
+  </si>
+  <si>
+    <t>87% ± 14%</t>
+  </si>
+  <si>
+    <t>264 ± 49</t>
+  </si>
+  <si>
+    <t>45 ± 207</t>
+  </si>
+  <si>
+    <t>14 ± 3</t>
+  </si>
+  <si>
+    <t>57 ± 21</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>OriginalVariableNames</t>
+  </si>
+  <si>
+    <t>Julian Day of Year</t>
+  </si>
+  <si>
+    <t>Recording Sessions</t>
+  </si>
+  <si>
+    <t>Unique Squirrels</t>
+  </si>
+  <si>
+    <t>Day Length (hrs)</t>
+  </si>
+  <si>
+    <t>QB per day (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (%)</t>
+  </si>
+  <si>
+    <t>QB in darkness (hrs)</t>
+  </si>
+  <si>
+    <t>QB in darkness (%)</t>
+  </si>
+  <si>
+    <t>Total QB transitions</t>
+  </si>
+  <si>
+    <t>QB transitions in daylight</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour daylight</t>
+  </si>
+  <si>
+    <t>QB transitions in darkness</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour darkness</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>311-35</t>
+  </si>
+  <si>
+    <t>6.55 ± 0.79</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN% ± NaN%</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN% ± NaN%</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN ± NaN
+</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>36-127</t>
+  </si>
+  <si>
+    <t>12.44 ± 2.52</t>
+  </si>
+  <si>
+    <t>17.65 ± 1.35</t>
+  </si>
+  <si>
+    <t>6.41 ± 1.84</t>
+  </si>
+  <si>
+    <t>52% ± 15%</t>
+  </si>
+  <si>
+    <t>11.24 ± 2.21</t>
+  </si>
+  <si>
+    <t>97% ± 19%</t>
+  </si>
+  <si>
+    <t>247 ± 35</t>
+  </si>
+  <si>
+    <t>186 ± 40</t>
+  </si>
+  <si>
+    <t>15 ± 3</t>
+  </si>
+  <si>
+    <t>61 ± 23
+</t>
+  </si>
+  <si>
+    <t>5 ± 2
+</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>128-218</t>
+  </si>
+  <si>
+    <t>18.21 ± 0.81</t>
+  </si>
+  <si>
+    <t>15.38 ± 1.85</t>
+  </si>
+  <si>
+    <t>10.31 ± 1.96</t>
+  </si>
+  <si>
+    <t>57% ± 11%</t>
+  </si>
+  <si>
+    <t>5.06 ± 0.73</t>
+  </si>
+  <si>
+    <t>87% ± 13%</t>
+  </si>
+  <si>
+    <t>296 ± 46</t>
+  </si>
+  <si>
+    <t>262 ± 41</t>
+  </si>
+  <si>
+    <t>14 ± 2</t>
+  </si>
+  <si>
+    <t>35 ± 16
+</t>
+  </si>
+  <si>
+    <t>6 ± 3
+</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>219-309</t>
+  </si>
+  <si>
+    <t>12.37 ± 2.47</t>
+  </si>
+  <si>
+    <t>12.39 ± 2.07</t>
+  </si>
+  <si>
+    <t>3.33 ± 2.37</t>
+  </si>
+  <si>
+    <t>27% ± 19%</t>
+  </si>
+  <si>
+    <t>9.06 ± 1.11</t>
+  </si>
+  <si>
+    <t>78% ± 10%</t>
+  </si>
+  <si>
+    <t>248 ± 67</t>
+  </si>
+  <si>
+    <t>173 ± 54</t>
+  </si>
+  <si>
+    <t>14 ± 4</t>
+  </si>
+  <si>
+    <t>75 ± 24
+</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>1-366</t>
+  </si>
+  <si>
+    <t>12.39 ± 1.65</t>
+  </si>
+  <si>
+    <t>15.14 ± 1.76</t>
+  </si>
+  <si>
+    <t>6.68 ± 2.06</t>
+  </si>
+  <si>
+    <t>45% ± 15%</t>
+  </si>
+  <si>
+    <t>8.45 ± 1.35</t>
+  </si>
+  <si>
+    <t>87% ± 14%</t>
+  </si>
+  <si>
+    <t>264 ± 49</t>
+  </si>
+  <si>
+    <t>207 ± 45</t>
+  </si>
+  <si>
+    <t>14 ± 3</t>
+  </si>
+  <si>
+    <t>57 ± 21</t>
+  </si>
+  <si>
+    <t>6 ± 2
 </t>
   </si>
 </sst>
@@ -1447,7 +1919,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1461,11 +1933,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1473,6 +1947,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1495,67 +1971,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>390</v>
+        <v>547</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>414</v>
+        <v>569</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>428</v>
+        <v>582</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>442</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>376</v>
+        <v>533</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>391</v>
+        <v>548</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>401</v>
+        <v>557</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>415</v>
+        <v>570</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>429</v>
+        <v>583</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>443</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>444</v>
+        <v>534</v>
+      </c>
+      <c r="B3" s="0">
+        <v>84</v>
+      </c>
+      <c r="C3" s="0">
+        <v>88</v>
+      </c>
+      <c r="D3" s="0">
+        <v>75</v>
+      </c>
+      <c r="E3" s="0">
+        <v>98</v>
+      </c>
+      <c r="F3" s="0">
+        <v>345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>378</v>
+        <v>535</v>
       </c>
       <c r="B4" s="0">
         <v>71</v>
@@ -1570,227 +2046,227 @@
         <v>68</v>
       </c>
       <c r="F4" s="0">
-        <v>218</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>379</v>
+        <v>536</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>393</v>
+        <v>549</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>403</v>
+        <v>558</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>417</v>
+        <v>571</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>431</v>
+        <v>584</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>445</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>380</v>
+        <v>537</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>394</v>
+        <v>550</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>404</v>
+        <v>559</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>418</v>
+        <v>572</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>432</v>
+        <v>585</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>446</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>381</v>
+        <v>538</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>394</v>
+        <v>550</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>419</v>
+        <v>573</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>433</v>
+        <v>586</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>447</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>382</v>
+        <v>539</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>395</v>
+        <v>551</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>406</v>
+        <v>561</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>420</v>
+        <v>574</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>434</v>
+        <v>587</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>448</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>383</v>
+        <v>540</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>396</v>
+        <v>552</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>407</v>
+        <v>562</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>421</v>
+        <v>575</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>435</v>
+        <v>588</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>449</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>384</v>
+        <v>541</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>397</v>
+        <v>553</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>408</v>
+        <v>563</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>422</v>
+        <v>576</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>436</v>
+        <v>589</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>450</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>385</v>
+        <v>542</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>398</v>
+        <v>554</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>409</v>
+        <v>564</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>423</v>
+        <v>577</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>437</v>
+        <v>590</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>451</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>386</v>
+        <v>543</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>398</v>
+        <v>554</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>410</v>
+        <v>565</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>424</v>
+        <v>578</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>438</v>
+        <v>591</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>452</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>387</v>
+        <v>544</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>398</v>
+        <v>554</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>411</v>
+        <v>566</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>425</v>
+        <v>579</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>439</v>
+        <v>592</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>453</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>388</v>
+        <v>545</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>399</v>
+        <v>555</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>412</v>
+        <v>567</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>426</v>
+        <v>580</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>440</v>
+        <v>593</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>454</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>389</v>
+        <v>546</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>399</v>
+        <v>555</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>413</v>
+        <v>568</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>427</v>
+        <v>581</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>441</v>
+        <v>594</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>455</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
